--- a/output/1Y_P102_KFSDIV.xlsx
+++ b/output/1Y_P102_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.7066</v>
       </c>
       <c r="C2" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D2" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.1511</v>
       </c>
       <c r="C3" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D3" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E3" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="F3" s="1">
-        <v>896.7725</v>
+        <v>894.9747</v>
       </c>
       <c r="H3" s="1">
-        <v>10415.1645</v>
+        <v>10373.5051</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10415.1645</v>
+        <v>10373.5051</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0415</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.5294</v>
       </c>
       <c r="C4" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D4" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E4" s="1">
-        <v>1830.7758</v>
+        <v>1827.1062</v>
       </c>
       <c r="F4" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="H4" s="1">
-        <v>21107.747</v>
+        <v>21023.2323</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21107.747</v>
+        <v>21023.2323</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9243</v>
+        <v>10.9463</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0339</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>10.9136</v>
       </c>
       <c r="C5" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D5" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E5" s="1">
-        <v>2698.1161</v>
+        <v>2692.7197</v>
       </c>
       <c r="F5" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="H5" s="1">
-        <v>29446.1603</v>
+        <v>29328.5647</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29446.1603</v>
+        <v>29328.5647</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.1189</v>
+        <v>11.1412</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>823.8491</v>
+        <v>822.1978</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9176.150900000001</v>
+        <v>-9177.8022</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0534</v>
+        <v>-0.0546</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.2587</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E6" s="1">
-        <v>3614.4041</v>
+        <v>3607.1727</v>
       </c>
       <c r="F6" s="1">
-        <v>897.3488</v>
+        <v>895.5328</v>
       </c>
       <c r="H6" s="1">
-        <v>40693.1297</v>
+        <v>40530.9134</v>
       </c>
       <c r="I6" s="1">
-        <v>823.8491</v>
+        <v>822.1978</v>
       </c>
       <c r="J6" s="1">
-        <v>41516.9789</v>
+        <v>41353.1112</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.0668</v>
+        <v>11.089</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10102.9811</v>
+        <v>-10102.7747</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0525</v>
+        <v>0.0515</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.6434</v>
       </c>
       <c r="C7" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D7" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E7" s="1">
-        <v>4511.7529</v>
+        <v>4502.7055</v>
       </c>
       <c r="F7" s="1">
-        <v>867.7003</v>
+        <v>865.9496</v>
       </c>
       <c r="H7" s="1">
-        <v>52532.1437</v>
+        <v>52321.8882</v>
       </c>
       <c r="I7" s="1">
-        <v>720.8680000000001</v>
+        <v>719.4231</v>
       </c>
       <c r="J7" s="1">
-        <v>53253.0116</v>
+        <v>53041.3113</v>
       </c>
       <c r="K7" s="1">
-        <v>50102.9811</v>
+        <v>50102.7747</v>
       </c>
       <c r="L7" s="1">
-        <v>11.105</v>
+        <v>11.1273</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10102.9811</v>
+        <v>-10102.7747</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0337</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>11.3141</v>
       </c>
       <c r="C8" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D8" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E8" s="1">
-        <v>5379.4531</v>
+        <v>5368.6551</v>
       </c>
       <c r="F8" s="1">
-        <v>892.9549</v>
+        <v>891.1487</v>
       </c>
       <c r="H8" s="1">
-        <v>60863.6709</v>
+        <v>60620.1696</v>
       </c>
       <c r="I8" s="1">
-        <v>617.8868</v>
+        <v>616.6482999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>61481.5577</v>
+        <v>61236.818</v>
       </c>
       <c r="K8" s="1">
-        <v>60205.9623</v>
+        <v>60205.5494</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1918</v>
+        <v>11.2143</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1624.231</v>
+        <v>1620.974</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8478.750099999999</v>
+        <v>-8481.8007</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.028</v>
+        <v>-0.0286</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>11.003</v>
       </c>
       <c r="C9" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D9" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E9" s="1">
-        <v>6272.4081</v>
+        <v>6259.8039</v>
       </c>
       <c r="F9" s="1">
-        <v>947.7258</v>
+        <v>945.7483</v>
       </c>
       <c r="H9" s="1">
-        <v>69015.30590000001</v>
+        <v>68738.9062</v>
       </c>
       <c r="I9" s="1">
-        <v>2139.1367</v>
+        <v>2134.8476</v>
       </c>
       <c r="J9" s="1">
-        <v>71154.44259999999</v>
+        <v>70873.75380000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70308.9434</v>
+        <v>70308.3242</v>
       </c>
       <c r="L9" s="1">
-        <v>11.2092</v>
+        <v>11.2317</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10427.8273</v>
+        <v>-10426.9695</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0046</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>11.1102</v>
       </c>
       <c r="C10" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D10" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E10" s="1">
-        <v>7220.1339</v>
+        <v>7205.5522</v>
       </c>
       <c r="F10" s="1">
-        <v>938.573</v>
+        <v>936.6242999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>80217.13159999999</v>
+        <v>79895.1623</v>
       </c>
       <c r="I10" s="1">
-        <v>1711.3094</v>
+        <v>1707.8781</v>
       </c>
       <c r="J10" s="1">
-        <v>81928.44100000001</v>
+        <v>81603.0404</v>
       </c>
       <c r="K10" s="1">
-        <v>80736.7708</v>
+        <v>80735.29369999999</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1822</v>
+        <v>11.2046</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10427.8273</v>
+        <v>-10426.9695</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0095</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>10.623</v>
       </c>
       <c r="C11" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D11" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E11" s="1">
-        <v>8158.7069</v>
+        <v>8142.1764</v>
       </c>
       <c r="F11" s="1">
-        <v>981.6274</v>
+        <v>979.5825</v>
       </c>
       <c r="H11" s="1">
-        <v>86669.9431</v>
+        <v>86320.91160000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1283.482</v>
+        <v>1280.9086</v>
       </c>
       <c r="J11" s="1">
-        <v>87953.42509999999</v>
+        <v>87601.8202</v>
       </c>
       <c r="K11" s="1">
-        <v>91164.5981</v>
+        <v>91162.2632</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1739</v>
+        <v>11.1963</v>
       </c>
       <c r="M11" s="1">
         <v>0.1</v>
       </c>
       <c r="N11" s="1">
-        <v>649.8121</v>
+        <v>648.4997</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9778.015299999999</v>
+        <v>-9778.469800000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0432</v>
+        <v>-0.0437</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>9.977</v>
       </c>
       <c r="C12" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E12" s="1">
-        <v>9140.334199999999</v>
+        <v>9121.758900000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1077.7522</v>
+        <v>1075.4446</v>
       </c>
       <c r="H12" s="1">
-        <v>91193.1145</v>
+        <v>90825.353</v>
       </c>
       <c r="I12" s="1">
-        <v>1505.4667</v>
+        <v>1502.4387</v>
       </c>
       <c r="J12" s="1">
-        <v>92698.58130000001</v>
+        <v>92327.79180000001</v>
       </c>
       <c r="K12" s="1">
-        <v>101592.4255</v>
+        <v>101589.2327</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1147</v>
+        <v>11.137</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10752.7334</v>
+        <v>-10751.2194</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0536</v>
+        <v>-0.054</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.5542</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E13" s="1">
-        <v>10218.0864</v>
+        <v>10197.2034</v>
       </c>
       <c r="F13" s="1">
-        <v>1018.8108</v>
+        <v>1016.6253</v>
       </c>
       <c r="H13" s="1">
-        <v>107843.7274</v>
+        <v>107408.1635</v>
       </c>
       <c r="I13" s="1">
-        <v>752.7334</v>
+        <v>751.2194</v>
       </c>
       <c r="J13" s="1">
-        <v>108596.4607</v>
+        <v>108159.3829</v>
       </c>
       <c r="K13" s="1">
-        <v>112345.1588</v>
+        <v>112340.4521</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9947</v>
+        <v>11.0168</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10752.7334</v>
+        <v>-10751.2194</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0574</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.7815</v>
       </c>
       <c r="C14" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D14" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E14" s="1">
-        <v>11236.8972</v>
+        <v>11213.8288</v>
       </c>
       <c r="F14" s="1">
-        <v>-11236.8972</v>
+        <v>-11213.8288</v>
       </c>
       <c r="H14" s="1">
-        <v>121150.6075</v>
+        <v>120659.676</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121150.6075</v>
+        <v>120659.676</v>
       </c>
       <c r="K14" s="1">
-        <v>123097.8922</v>
+        <v>123091.6715</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9548</v>
+        <v>10.9768</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121150.6075</v>
+        <v>120659.676</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0215</v>
+        <v>0.0212</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.7066</v>
       </c>
       <c r="C2" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D2" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.1511</v>
       </c>
       <c r="C3" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D3" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E3" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="F3" s="1">
-        <v>859.5417</v>
+        <v>865.0074</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10415.1645</v>
+        <v>10373.5051</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10415.1645</v>
+        <v>10373.5051</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9584.835499999999</v>
+        <v>-9665.1607</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0415</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.5294</v>
       </c>
       <c r="C4" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D4" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E4" s="1">
-        <v>1793.545</v>
+        <v>1797.139</v>
       </c>
       <c r="F4" s="1">
-        <v>808.4983999999999</v>
+        <v>810.1284000000001</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20678.4981</v>
+        <v>20678.42</v>
       </c>
       <c r="I4" s="1">
-        <v>415.1645</v>
+        <v>334.8393</v>
       </c>
       <c r="J4" s="1">
-        <v>21093.6626</v>
+        <v>21013.2592</v>
       </c>
       <c r="K4" s="1">
-        <v>19584.8355</v>
+        <v>19665.1607</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9196</v>
+        <v>10.9425</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9321.5828</v>
+        <v>-9359.008</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0332</v>
+        <v>0.0314</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>10.9136</v>
       </c>
       <c r="C5" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D5" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E5" s="1">
-        <v>2602.0435</v>
+        <v>2607.2673</v>
       </c>
       <c r="F5" s="1">
-        <v>1016.4915</v>
+        <v>1003.6881</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28397.6616</v>
+        <v>28397.8342</v>
       </c>
       <c r="I5" s="1">
-        <v>1093.5817</v>
+        <v>975.8313000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>29491.2433</v>
+        <v>29373.6655</v>
       </c>
       <c r="K5" s="1">
-        <v>28906.4183</v>
+        <v>29024.1687</v>
       </c>
       <c r="L5" s="1">
-        <v>11.1091</v>
+        <v>11.132</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>807.0953</v>
+        <v>808.7125</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10286.4864</v>
+        <v>-10167.1188</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0515</v>
+        <v>-0.0529</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.2587</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E6" s="1">
-        <v>3618.535</v>
+        <v>3610.9554</v>
       </c>
       <c r="F6" s="1">
-        <v>822.5145</v>
+        <v>838.9476</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40739.6379</v>
+        <v>40573.4174</v>
       </c>
       <c r="I6" s="1">
-        <v>807.0953</v>
+        <v>808.7125</v>
       </c>
       <c r="J6" s="1">
-        <v>41546.7332</v>
+        <v>41382.1299</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.0542</v>
+        <v>11.0774</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9260.444299999999</v>
+        <v>-9464.419099999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.6434</v>
       </c>
       <c r="C7" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D7" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E7" s="1">
-        <v>4441.0495</v>
+        <v>4449.903</v>
       </c>
       <c r="F7" s="1">
-        <v>712.0845</v>
+        <v>713.5638</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>51708.9159</v>
+        <v>51708.3178</v>
       </c>
       <c r="I7" s="1">
-        <v>1546.6509</v>
+        <v>1344.2934</v>
       </c>
       <c r="J7" s="1">
-        <v>53255.5668</v>
+        <v>53052.6111</v>
       </c>
       <c r="K7" s="1">
-        <v>49260.4443</v>
+        <v>49464.4191</v>
       </c>
       <c r="L7" s="1">
-        <v>11.0921</v>
+        <v>11.1158</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8291.0841</v>
+        <v>-8324.934300000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0332</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>11.3141</v>
       </c>
       <c r="C8" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D8" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E8" s="1">
-        <v>5153.134</v>
+        <v>5163.4668</v>
       </c>
       <c r="F8" s="1">
-        <v>1033.8363</v>
+        <v>1035.8867</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58303.073</v>
+        <v>58303.2848</v>
       </c>
       <c r="I8" s="1">
-        <v>3255.5668</v>
+        <v>3019.3591</v>
       </c>
       <c r="J8" s="1">
-        <v>61558.6398</v>
+        <v>61322.6439</v>
       </c>
       <c r="K8" s="1">
-        <v>57551.5285</v>
+        <v>57789.3535</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1683</v>
+        <v>11.192</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1598.7778</v>
+        <v>1601.9651</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10098.1492</v>
+        <v>-10141.6758</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0268</v>
+        <v>-0.0274</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>11.003</v>
       </c>
       <c r="C9" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D9" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E9" s="1">
-        <v>6186.9702</v>
+        <v>6199.3535</v>
       </c>
       <c r="F9" s="1">
-        <v>1083.7741</v>
+        <v>1085.9575</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>68075.23360000001</v>
+        <v>68075.1007</v>
       </c>
       <c r="I9" s="1">
-        <v>3157.4176</v>
+        <v>2877.6833</v>
       </c>
       <c r="J9" s="1">
-        <v>71232.6511</v>
+        <v>70952.7841</v>
       </c>
       <c r="K9" s="1">
-        <v>69248.4555</v>
+        <v>69532.99430000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.1926</v>
+        <v>11.2162</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11924.7664</v>
+        <v>-11972.79</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0046</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>11.1102</v>
       </c>
       <c r="C10" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D10" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E10" s="1">
-        <v>7270.7443</v>
+        <v>7285.311</v>
       </c>
       <c r="F10" s="1">
-        <v>829.9199</v>
+        <v>831.5721</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80779.4238</v>
+        <v>80779.52830000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1232.6511</v>
+        <v>904.8933</v>
       </c>
       <c r="J10" s="1">
-        <v>82012.07490000001</v>
+        <v>81684.4216</v>
       </c>
       <c r="K10" s="1">
-        <v>81173.2219</v>
+        <v>81505.7843</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1644</v>
+        <v>11.1877</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9220.6592</v>
+        <v>-9257.476699999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>10.623</v>
       </c>
       <c r="C11" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D11" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E11" s="1">
-        <v>8100.6643</v>
+        <v>8116.8831</v>
       </c>
       <c r="F11" s="1">
-        <v>1130.7533</v>
+        <v>1094.2398</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>86053.3564</v>
+        <v>86052.7597</v>
       </c>
       <c r="I11" s="1">
-        <v>2011.9919</v>
+        <v>1647.4166</v>
       </c>
       <c r="J11" s="1">
-        <v>88065.3483</v>
+        <v>87700.1764</v>
       </c>
       <c r="K11" s="1">
-        <v>90393.8811</v>
+        <v>90763.261</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1588</v>
+        <v>11.182</v>
       </c>
       <c r="M11" s="1">
         <v>0.1</v>
       </c>
       <c r="N11" s="1">
-        <v>654.367</v>
+        <v>655.678</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11357.625</v>
+        <v>-10991.7387</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0429</v>
+        <v>-0.0435</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>9.977</v>
       </c>
       <c r="C12" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E12" s="1">
-        <v>9231.4175</v>
+        <v>9211.1229</v>
       </c>
       <c r="F12" s="1">
-        <v>1067.8929</v>
+        <v>1065.8876</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>92101.8526</v>
+        <v>91715.1508</v>
       </c>
       <c r="I12" s="1">
-        <v>654.367</v>
+        <v>655.678</v>
       </c>
       <c r="J12" s="1">
-        <v>92756.2196</v>
+        <v>92370.8288</v>
       </c>
       <c r="K12" s="1">
-        <v>102405.8731</v>
+        <v>102410.6776</v>
       </c>
       <c r="L12" s="1">
-        <v>11.0932</v>
+        <v>11.1182</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10654.367</v>
+        <v>-10655.678</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0541</v>
+        <v>-0.0545</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.5542</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E13" s="1">
-        <v>10299.3104</v>
+        <v>10277.0105</v>
       </c>
       <c r="F13" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>108700.9815</v>
+        <v>108248.779</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108700.9815</v>
+        <v>108248.779</v>
       </c>
       <c r="K13" s="1">
-        <v>113060.2401</v>
+        <v>113066.3556</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9775</v>
+        <v>11.0019</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0579</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.7815</v>
       </c>
       <c r="C14" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D14" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E14" s="1">
-        <v>11246.8005</v>
+        <v>11222.6012</v>
       </c>
       <c r="F14" s="1">
-        <v>-11246.8005</v>
+        <v>-11222.6012</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121257.3793</v>
+        <v>120754.0665</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121257.3793</v>
+        <v>120754.0665</v>
       </c>
       <c r="K14" s="1">
-        <v>123060.2401</v>
+        <v>123066.3556</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9418</v>
+        <v>10.9659</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121257.3793</v>
+        <v>120754.0665</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0215</v>
+        <v>0.0212</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.7066</v>
       </c>
       <c r="C2" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D2" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>11.1511</v>
       </c>
       <c r="C3" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D3" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E3" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="F3" s="1">
-        <v>864.0256000000001</v>
+        <v>869.5003</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10415.1645</v>
+        <v>10373.5051</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10415.1645</v>
+        <v>10373.5051</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9634.835499999999</v>
+        <v>-9715.3616</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0415</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.5294</v>
       </c>
       <c r="C4" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D4" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E4" s="1">
-        <v>1798.0289</v>
+        <v>1801.6318</v>
       </c>
       <c r="F4" s="1">
-        <v>817.0465</v>
+        <v>818.6935999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20730.1943</v>
+        <v>20730.116</v>
       </c>
       <c r="I4" s="1">
-        <v>365.1645</v>
+        <v>284.6384</v>
       </c>
       <c r="J4" s="1">
-        <v>21095.3588</v>
+        <v>21014.7544</v>
       </c>
       <c r="K4" s="1">
-        <v>19634.8355</v>
+        <v>19715.3616</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9202</v>
+        <v>10.9431</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9420.1374</v>
+        <v>-9457.9576</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0333</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>10.9136</v>
       </c>
       <c r="C5" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D5" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E5" s="1">
-        <v>2615.0754</v>
+        <v>2620.3254</v>
       </c>
       <c r="F5" s="1">
-        <v>1002.8796</v>
+        <v>990.049</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28539.8866</v>
+        <v>28540.06</v>
       </c>
       <c r="I5" s="1">
-        <v>945.0271</v>
+        <v>826.6808</v>
       </c>
       <c r="J5" s="1">
-        <v>29484.9137</v>
+        <v>29366.7408</v>
       </c>
       <c r="K5" s="1">
-        <v>29054.9729</v>
+        <v>29173.3192</v>
       </c>
       <c r="L5" s="1">
-        <v>11.1106</v>
+        <v>11.1335</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>809.1130000000001</v>
+        <v>810.7343</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10135.9141</v>
+        <v>-10015.9465</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0518</v>
+        <v>-0.0531</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>11.2587</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E6" s="1">
-        <v>3617.955</v>
+        <v>3610.3744</v>
       </c>
       <c r="F6" s="1">
-        <v>867.7276000000001</v>
+        <v>884.2507000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40733.1082</v>
+        <v>40566.8886</v>
       </c>
       <c r="I6" s="1">
-        <v>809.1130000000001</v>
+        <v>810.7343</v>
       </c>
       <c r="J6" s="1">
-        <v>41542.2212</v>
+        <v>41377.6229</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.056</v>
+        <v>11.0792</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9769.484899999999</v>
+        <v>-9975.497300000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0521</v>
+        <v>0.0511</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.6434</v>
       </c>
       <c r="C7" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D7" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E7" s="1">
-        <v>4485.6826</v>
+        <v>4494.6251</v>
       </c>
       <c r="F7" s="1">
-        <v>732.2966</v>
+        <v>733.8169</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>52228.5969</v>
+        <v>52227.9928</v>
       </c>
       <c r="I7" s="1">
-        <v>1039.6281</v>
+        <v>835.237</v>
       </c>
       <c r="J7" s="1">
-        <v>53268.2251</v>
+        <v>53063.2298</v>
       </c>
       <c r="K7" s="1">
-        <v>49769.4849</v>
+        <v>49975.4973</v>
       </c>
       <c r="L7" s="1">
-        <v>11.0952</v>
+        <v>11.1189</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8526.421899999999</v>
+        <v>-8561.221799999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0335</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>11.3141</v>
       </c>
       <c r="C8" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D8" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E8" s="1">
-        <v>5217.9792</v>
+        <v>5228.442</v>
       </c>
       <c r="F8" s="1">
-        <v>1062.5729</v>
+        <v>1064.6806</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59036.7382</v>
+        <v>59036.9527</v>
       </c>
       <c r="I8" s="1">
-        <v>2513.2063</v>
+        <v>2274.0152</v>
       </c>
       <c r="J8" s="1">
-        <v>61549.9445</v>
+        <v>61310.9679</v>
       </c>
       <c r="K8" s="1">
-        <v>58295.9067</v>
+        <v>58536.7192</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1721</v>
+        <v>11.1958</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1614.8457</v>
+        <v>1618.065</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10407.2099</v>
+        <v>-10452.0061</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0272</v>
+        <v>-0.0278</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>11.003</v>
       </c>
       <c r="C9" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D9" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E9" s="1">
-        <v>6280.552</v>
+        <v>6293.1226</v>
       </c>
       <c r="F9" s="1">
-        <v>1100.2451</v>
+        <v>1072.2813</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>69104.91409999999</v>
+        <v>69104.77929999999</v>
       </c>
       <c r="I9" s="1">
-        <v>2105.9964</v>
+        <v>1822.009</v>
       </c>
       <c r="J9" s="1">
-        <v>71210.9105</v>
+        <v>70926.7883</v>
       </c>
       <c r="K9" s="1">
-        <v>70317.9624</v>
+        <v>70606.79029999999</v>
       </c>
       <c r="L9" s="1">
-        <v>11.1961</v>
+        <v>11.2197</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12105.9964</v>
+        <v>-11822.009</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0047</v>
+        <v>-0.0054</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>11.1102</v>
       </c>
       <c r="C10" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D10" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E10" s="1">
-        <v>7380.7971</v>
+        <v>7365.4039</v>
       </c>
       <c r="F10" s="1">
-        <v>883.7848</v>
+        <v>898.2708</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82002.132</v>
+        <v>81667.5989</v>
       </c>
       <c r="I10" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>82002.132</v>
+        <v>81667.5989</v>
       </c>
       <c r="K10" s="1">
-        <v>82423.9587</v>
+        <v>82428.7993</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1674</v>
+        <v>11.1913</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9819.1147</v>
+        <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0097</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>10.623</v>
       </c>
       <c r="C11" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D11" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E11" s="1">
-        <v>8264.581899999999</v>
+        <v>8263.674800000001</v>
       </c>
       <c r="F11" s="1">
-        <v>958.3814</v>
+        <v>939.47</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>87794.65399999999</v>
+        <v>87609.00079999999</v>
       </c>
       <c r="I11" s="1">
-        <v>180.8853</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87975.5393</v>
+        <v>87609.00079999999</v>
       </c>
       <c r="K11" s="1">
-        <v>92243.07339999999</v>
+        <v>92428.7993</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1613</v>
+        <v>11.185</v>
       </c>
       <c r="M11" s="1">
         <v>0.1</v>
       </c>
       <c r="N11" s="1">
-        <v>664.2717</v>
+        <v>662.8864</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9516.613600000001</v>
+        <v>-9337.113600000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0438</v>
+        <v>-0.0443</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>9.977</v>
       </c>
       <c r="C12" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E12" s="1">
-        <v>9222.963299999999</v>
+        <v>9203.144700000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1068.8856</v>
+        <v>1066.6086</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>92017.505</v>
+        <v>91635.712</v>
       </c>
       <c r="I12" s="1">
-        <v>664.2717</v>
+        <v>662.8864</v>
       </c>
       <c r="J12" s="1">
-        <v>92681.7767</v>
+        <v>92298.5984</v>
       </c>
       <c r="K12" s="1">
-        <v>102423.9587</v>
+        <v>102428.7993</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1053</v>
+        <v>11.1298</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10664.2717</v>
+        <v>-10662.8864</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.054</v>
+        <v>-0.0544</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.5542</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E13" s="1">
-        <v>10291.8489</v>
+        <v>10269.7533</v>
       </c>
       <c r="F13" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>108622.2319</v>
+        <v>108172.3389</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108622.2319</v>
+        <v>108172.3389</v>
       </c>
       <c r="K13" s="1">
-        <v>113088.2305</v>
+        <v>113091.6857</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9881</v>
+        <v>11.0121</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0579</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.7815</v>
       </c>
       <c r="C14" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D14" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E14" s="1">
-        <v>11239.339</v>
+        <v>11215.3441</v>
       </c>
       <c r="F14" s="1">
-        <v>-11239.339</v>
+        <v>-11215.3441</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121176.9337</v>
+        <v>120675.9805</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121176.9337</v>
+        <v>120675.9805</v>
       </c>
       <c r="K14" s="1">
-        <v>123088.2305</v>
+        <v>123091.6857</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9516</v>
+        <v>10.9753</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121176.9337</v>
+        <v>120675.9805</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0215</v>
+        <v>0.0212</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.7066</v>
       </c>
       <c r="C2" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D2" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>11.1511</v>
       </c>
       <c r="C3" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D3" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E3" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="F3" s="1">
-        <v>868.5094</v>
+        <v>873.9931</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10415.1645</v>
+        <v>10373.5051</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10415.1645</v>
+        <v>10373.5051</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9684.835499999999</v>
+        <v>-9765.562400000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0415</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.5294</v>
       </c>
       <c r="C4" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D4" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E4" s="1">
-        <v>1802.5128</v>
+        <v>1806.1246</v>
       </c>
       <c r="F4" s="1">
-        <v>825.6378999999999</v>
+        <v>827.3022999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20781.8906</v>
+        <v>20781.8121</v>
       </c>
       <c r="I4" s="1">
-        <v>315.1645</v>
+        <v>234.4376</v>
       </c>
       <c r="J4" s="1">
-        <v>21097.0551</v>
+        <v>21016.2497</v>
       </c>
       <c r="K4" s="1">
-        <v>19684.8355</v>
+        <v>19765.5624</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9208</v>
+        <v>10.9436</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9519.191999999999</v>
+        <v>-9557.409299999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0334</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>10.9136</v>
       </c>
       <c r="C5" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D5" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E5" s="1">
-        <v>2628.1506</v>
+        <v>2633.4269</v>
       </c>
       <c r="F5" s="1">
-        <v>989.2219</v>
+        <v>976.364</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28682.5848</v>
+        <v>28682.7592</v>
       </c>
       <c r="I5" s="1">
-        <v>795.9725</v>
+        <v>677.0282999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>29478.5573</v>
+        <v>29359.7875</v>
       </c>
       <c r="K5" s="1">
-        <v>29204.0275</v>
+        <v>29322.9717</v>
       </c>
       <c r="L5" s="1">
-        <v>11.112</v>
+        <v>11.1349</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>811.1307</v>
+        <v>812.7560999999999</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9984.841700000001</v>
+        <v>-9864.272199999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.052</v>
+        <v>-0.0534</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>11.2587</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E6" s="1">
-        <v>3617.3726</v>
+        <v>3609.7909</v>
       </c>
       <c r="F6" s="1">
-        <v>913.3905999999999</v>
+        <v>930.0046</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40726.5509</v>
+        <v>40560.3323</v>
       </c>
       <c r="I6" s="1">
-        <v>811.1307</v>
+        <v>812.7560999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>41537.6816</v>
+        <v>41373.0884</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.0577</v>
+        <v>11.081</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10283.5906</v>
+        <v>-10491.661</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0522</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.6434</v>
       </c>
       <c r="C7" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D7" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E7" s="1">
-        <v>4530.7632</v>
+        <v>4539.7955</v>
       </c>
       <c r="F7" s="1">
-        <v>752.9298</v>
+        <v>754.492</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>52753.4878</v>
+        <v>52752.8776</v>
       </c>
       <c r="I7" s="1">
-        <v>527.5402</v>
+        <v>321.0951</v>
       </c>
       <c r="J7" s="1">
-        <v>53281.0279</v>
+        <v>53073.9727</v>
       </c>
       <c r="K7" s="1">
-        <v>50283.5906</v>
+        <v>50491.661</v>
       </c>
       <c r="L7" s="1">
-        <v>11.0983</v>
+        <v>11.122</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8766.6628</v>
+        <v>-8802.4323</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0338</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>11.3141</v>
       </c>
       <c r="C8" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D8" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E8" s="1">
-        <v>5283.693</v>
+        <v>5294.2875</v>
       </c>
       <c r="F8" s="1">
-        <v>1039.4885</v>
+        <v>1016.0418</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59780.2305</v>
+        <v>59780.4477</v>
       </c>
       <c r="I8" s="1">
-        <v>1760.8773</v>
+        <v>1518.6628</v>
       </c>
       <c r="J8" s="1">
-        <v>61541.1078</v>
+        <v>61299.1105</v>
       </c>
       <c r="K8" s="1">
-        <v>59050.2534</v>
+        <v>59294.0933</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1759</v>
+        <v>11.1996</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1631.0747</v>
+        <v>1634.3264</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10129.8026</v>
+        <v>-9884.3364</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0275</v>
+        <v>-0.0281</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>11.003</v>
       </c>
       <c r="C9" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D9" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E9" s="1">
-        <v>6323.1815</v>
+        <v>6310.3293</v>
       </c>
       <c r="F9" s="1">
-        <v>1057.0821</v>
+        <v>1055.2581</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>69573.96610000001</v>
+        <v>69293.7265</v>
       </c>
       <c r="I9" s="1">
-        <v>1631.0747</v>
+        <v>1634.3264</v>
       </c>
       <c r="J9" s="1">
-        <v>71205.0408</v>
+        <v>70928.0529</v>
       </c>
       <c r="K9" s="1">
-        <v>70811.13069999999</v>
+        <v>70812.7561</v>
       </c>
       <c r="L9" s="1">
-        <v>11.1987</v>
+        <v>11.2217</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11631.0747</v>
+        <v>-11634.3264</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0047</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>11.1102</v>
       </c>
       <c r="C10" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D10" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E10" s="1">
-        <v>7380.2636</v>
+        <v>7365.5875</v>
       </c>
       <c r="F10" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>81996.20510000001</v>
+        <v>81669.6339</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>81996.20510000001</v>
+        <v>81669.6339</v>
       </c>
       <c r="K10" s="1">
-        <v>82442.2055</v>
+        <v>82447.0825</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1706</v>
+        <v>11.1936</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0097</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>10.623</v>
       </c>
       <c r="C11" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D11" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E11" s="1">
-        <v>8280.329299999999</v>
+        <v>8263.8583</v>
       </c>
       <c r="F11" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>87961.93859999999</v>
+        <v>87610.94650000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87961.93859999999</v>
+        <v>87610.94650000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92442.2055</v>
+        <v>92447.0825</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1641</v>
+        <v>11.1869</v>
       </c>
       <c r="M11" s="1">
         <v>0.1</v>
       </c>
       <c r="N11" s="1">
-        <v>664.2237</v>
+        <v>662.9029</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9335.7763</v>
+        <v>-9337.097100000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0439</v>
+        <v>-0.0443</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>9.977</v>
       </c>
       <c r="C12" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E12" s="1">
-        <v>9221.683000000001</v>
+        <v>9203.328299999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1068.8808</v>
+        <v>1066.6103</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>92004.7314</v>
+        <v>91637.53939999999</v>
       </c>
       <c r="I12" s="1">
-        <v>664.2237</v>
+        <v>662.9029</v>
       </c>
       <c r="J12" s="1">
-        <v>92668.95510000001</v>
+        <v>92300.4423</v>
       </c>
       <c r="K12" s="1">
-        <v>102442.2055</v>
+        <v>102447.0825</v>
       </c>
       <c r="L12" s="1">
-        <v>11.1088</v>
+        <v>11.1315</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10664.2237</v>
+        <v>-10662.9029</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.054</v>
+        <v>-0.0544</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.5542</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E13" s="1">
-        <v>10290.5638</v>
+        <v>10269.9385</v>
       </c>
       <c r="F13" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>108608.6685</v>
+        <v>108174.2894</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108608.6685</v>
+        <v>108174.2894</v>
       </c>
       <c r="K13" s="1">
-        <v>113106.4292</v>
+        <v>113109.9853</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9913</v>
+        <v>11.0137</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0579</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.7815</v>
       </c>
       <c r="C14" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D14" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E14" s="1">
-        <v>11238.0539</v>
+        <v>11215.5292</v>
       </c>
       <c r="F14" s="1">
-        <v>-11238.0539</v>
+        <v>-11215.5292</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121163.0782</v>
+        <v>120677.973</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121163.0782</v>
+        <v>120677.973</v>
       </c>
       <c r="K14" s="1">
-        <v>123106.4292</v>
+        <v>123109.9853</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9544</v>
+        <v>10.9767</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121163.0782</v>
+        <v>120677.973</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0215</v>
+        <v>0.0212</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3688,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>10.7066</v>
       </c>
       <c r="C2" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D2" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.1511</v>
       </c>
       <c r="C3" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D3" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E3" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="F3" s="1">
-        <v>872.9933</v>
+        <v>878.486</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10415.1645</v>
+        <v>10373.5051</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10415.1645</v>
+        <v>10373.5051</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9734.835499999999</v>
+        <v>-9815.763199999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0415</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.5294</v>
       </c>
       <c r="C4" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D4" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E4" s="1">
-        <v>1806.9966</v>
+        <v>1810.6175</v>
       </c>
       <c r="F4" s="1">
-        <v>834.2727</v>
+        <v>835.9544</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20833.5868</v>
+        <v>20833.5081</v>
       </c>
       <c r="I4" s="1">
-        <v>265.1645</v>
+        <v>184.2368</v>
       </c>
       <c r="J4" s="1">
-        <v>21098.7513</v>
+        <v>21017.7449</v>
       </c>
       <c r="K4" s="1">
-        <v>19734.8355</v>
+        <v>19815.7632</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9213</v>
+        <v>10.9442</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9618.7466</v>
+        <v>-9657.362999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0335</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>10.9136</v>
       </c>
       <c r="C5" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D5" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E5" s="1">
-        <v>2641.2693</v>
+        <v>2646.5719</v>
       </c>
       <c r="F5" s="1">
-        <v>975.5184</v>
+        <v>962.6331</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28825.7564</v>
+        <v>28825.9316</v>
       </c>
       <c r="I5" s="1">
-        <v>646.4179</v>
+        <v>526.8738</v>
       </c>
       <c r="J5" s="1">
-        <v>29472.1743</v>
+        <v>29352.8054</v>
       </c>
       <c r="K5" s="1">
-        <v>29353.5821</v>
+        <v>29473.1262</v>
       </c>
       <c r="L5" s="1">
-        <v>11.1134</v>
+        <v>11.1363</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>813.1485</v>
+        <v>814.7779</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9833.269399999999</v>
+        <v>-9712.0959</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0523</v>
+        <v>-0.0537</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>11.2587</v>
       </c>
       <c r="C6" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D6" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E6" s="1">
-        <v>3616.7877</v>
+        <v>3609.2049</v>
       </c>
       <c r="F6" s="1">
-        <v>959.5068</v>
+        <v>958.6464</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>40719.966</v>
+        <v>40553.7485</v>
       </c>
       <c r="I6" s="1">
-        <v>813.1485</v>
+        <v>814.7779</v>
       </c>
       <c r="J6" s="1">
-        <v>41533.1145</v>
+        <v>41368.5264</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.0595</v>
+        <v>11.0828</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10802.7992</v>
+        <v>-10814.7779</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0522</v>
+        <v>0.0512</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.6434</v>
       </c>
       <c r="C7" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D7" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E7" s="1">
-        <v>4576.2945</v>
+        <v>4567.8514</v>
       </c>
       <c r="F7" s="1">
-        <v>773.9906</v>
+        <v>793.1618</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>53283.6274</v>
+        <v>53078.8895</v>
       </c>
       <c r="I7" s="1">
-        <v>10.3493</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>53293.9767</v>
+        <v>53078.8895</v>
       </c>
       <c r="K7" s="1">
-        <v>50802.7992</v>
+        <v>50814.7779</v>
       </c>
       <c r="L7" s="1">
-        <v>11.1013</v>
+        <v>11.1244</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9011.8819</v>
+        <v>-9253.581099999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0342</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>11.3141</v>
       </c>
       <c r="C8" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D8" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E8" s="1">
-        <v>5350.2851</v>
+        <v>5361.0132</v>
       </c>
       <c r="F8" s="1">
-        <v>972.1027</v>
+        <v>947.9235</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60533.6604</v>
+        <v>60533.8804</v>
       </c>
       <c r="I8" s="1">
-        <v>998.4674</v>
+        <v>746.4189</v>
       </c>
       <c r="J8" s="1">
-        <v>61532.1278</v>
+        <v>61280.2993</v>
       </c>
       <c r="K8" s="1">
-        <v>59814.6811</v>
+        <v>60068.359</v>
       </c>
       <c r="L8" s="1">
-        <v>11.1797</v>
+        <v>11.2047</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1647.466</v>
+        <v>1644.4265</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9351.0013</v>
+        <v>-9101.992399999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0278</v>
+        <v>-0.0285</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>11.003</v>
       </c>
       <c r="C9" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D9" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E9" s="1">
-        <v>6322.3878</v>
+        <v>6308.9367</v>
       </c>
       <c r="F9" s="1">
-        <v>1058.5718</v>
+        <v>1056.1742</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>69565.2329</v>
+        <v>69278.4335</v>
       </c>
       <c r="I9" s="1">
-        <v>1647.466</v>
+        <v>1644.4265</v>
       </c>
       <c r="J9" s="1">
-        <v>71212.69899999999</v>
+        <v>70922.86</v>
       </c>
       <c r="K9" s="1">
-        <v>70813.1485</v>
+        <v>70814.7779</v>
       </c>
       <c r="L9" s="1">
-        <v>11.2004</v>
+        <v>11.2245</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11647.466</v>
+        <v>-11644.4265</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0045</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>11.1102</v>
       </c>
       <c r="C10" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D10" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E10" s="1">
-        <v>7380.9596</v>
+        <v>7365.1109</v>
       </c>
       <c r="F10" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82003.9378</v>
+        <v>81664.3496</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>82003.9378</v>
+        <v>81664.3496</v>
       </c>
       <c r="K10" s="1">
-        <v>82460.6145</v>
+        <v>82459.2044</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1721</v>
+        <v>11.1959</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0097</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>10.623</v>
       </c>
       <c r="C11" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D11" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E11" s="1">
-        <v>8281.025299999999</v>
+        <v>8263.3817</v>
       </c>
       <c r="F11" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>87969.33229999999</v>
+        <v>87605.894</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87969.33229999999</v>
+        <v>87605.894</v>
       </c>
       <c r="K11" s="1">
-        <v>92460.6145</v>
+        <v>92459.2044</v>
       </c>
       <c r="L11" s="1">
-        <v>11.1654</v>
+        <v>11.189</v>
       </c>
       <c r="M11" s="1">
         <v>0.1</v>
       </c>
       <c r="N11" s="1">
-        <v>664.2864</v>
+        <v>662.86</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9335.713599999999</v>
+        <v>-9337.139999999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0439</v>
+        <v>-0.0443</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>9.977</v>
       </c>
       <c r="C12" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E12" s="1">
-        <v>9222.379000000001</v>
+        <v>9202.851699999999</v>
       </c>
       <c r="F12" s="1">
-        <v>1068.8871</v>
+        <v>1066.606</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>92011.67539999999</v>
+        <v>91632.7941</v>
       </c>
       <c r="I12" s="1">
-        <v>664.2864</v>
+        <v>662.86</v>
       </c>
       <c r="J12" s="1">
-        <v>92675.9618</v>
+        <v>92295.6541</v>
       </c>
       <c r="K12" s="1">
-        <v>102460.6145</v>
+        <v>102459.2044</v>
       </c>
       <c r="L12" s="1">
-        <v>11.11</v>
+        <v>11.1334</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10664.2864</v>
+        <v>-10662.86</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.054</v>
+        <v>-0.0544</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.5542</v>
       </c>
       <c r="C13" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D13" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E13" s="1">
-        <v>10291.2661</v>
+        <v>10269.4577</v>
       </c>
       <c r="F13" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>108616.0806</v>
+        <v>108169.2244</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>108616.0806</v>
+        <v>108169.2244</v>
       </c>
       <c r="K13" s="1">
-        <v>113124.9009</v>
+        <v>113122.0643</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9923</v>
+        <v>11.0154</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0579</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.7815</v>
       </c>
       <c r="C14" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D14" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E14" s="1">
-        <v>11238.7562</v>
+        <v>11215.0484</v>
       </c>
       <c r="F14" s="1">
-        <v>-11238.7562</v>
+        <v>-11215.0484</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121170.6499</v>
+        <v>120672.7989</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121170.6499</v>
+        <v>120672.7989</v>
       </c>
       <c r="K14" s="1">
-        <v>123124.9009</v>
+        <v>123122.0643</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9554</v>
+        <v>10.9783</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121170.6499</v>
+        <v>120672.7989</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0215</v>
+        <v>0.0212</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.9548</v>
+        <v>10.9768</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9418</v>
+        <v>10.9659</v>
       </c>
       <c r="E3" s="1">
-        <v>10.9516</v>
+        <v>10.9753</v>
       </c>
       <c r="F3" s="1">
-        <v>10.9544</v>
+        <v>10.9767</v>
       </c>
       <c r="G3" s="1">
-        <v>10.9554</v>
+        <v>10.9783</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0165</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0673</v>
+        <v>0.0547</v>
       </c>
       <c r="D4" s="3">
-        <v>0.06900000000000001</v>
+        <v>0.0564</v>
       </c>
       <c r="E4" s="3">
-        <v>0.06809999999999999</v>
+        <v>0.0555</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0679</v>
+        <v>0.0555</v>
       </c>
       <c r="G4" s="3">
-        <v>0.068</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1377</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1366</v>
+        <v>0.1354</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1353</v>
+        <v>0.1343</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1359</v>
+        <v>0.1349</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1362</v>
+        <v>0.1352</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1365</v>
+        <v>0.1354</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.0277</v>
       </c>
       <c r="C6" s="4">
-        <v>0.3437</v>
+        <v>0.2539</v>
       </c>
       <c r="D6" s="4">
-        <v>0.3596</v>
+        <v>0.2688</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3514</v>
+        <v>0.2607</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3494</v>
+        <v>0.2602</v>
       </c>
       <c r="G6" s="4">
-        <v>0.3495</v>
+        <v>0.2588</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.018</v>
+        <v>0.0103</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0198</v>
+        <v>0.0118</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0184</v>
+        <v>0.0105</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0181</v>
+        <v>0.0105</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0182</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3097.8922</v>
+        <v>3091.6715</v>
       </c>
       <c r="D8" s="1">
-        <v>3060.2401</v>
+        <v>3066.3556</v>
       </c>
       <c r="E8" s="1">
-        <v>3088.2305</v>
+        <v>3091.6857</v>
       </c>
       <c r="F8" s="1">
-        <v>3106.4292</v>
+        <v>3109.9853</v>
       </c>
       <c r="G8" s="1">
-        <v>3124.9009</v>
+        <v>3122.0643</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P102_KFSDIV.xlsx
+++ b/output/1Y_P102_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>3869.9975</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9804</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9814000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9806</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9802</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
